--- a/config/default/forms/app/child_development_follow_up.xlsx
+++ b/config/default/forms/app/child_development_follow_up.xlsx
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C2" s="52" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-03_16-37</v>
+        <v>2020-12-04_11-56</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>171</v>

--- a/config/default/forms/app/child_development_follow_up.xlsx
+++ b/config/default/forms/app/child_development_follow_up.xlsx
@@ -9744,7 +9744,7 @@
       </c>
       <c r="C2" s="68" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-02-04_14-51</v>
+        <v>2021-02-05_13-24</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>192</v>
